--- a/supp/SupplementaryData.xlsx
+++ b/supp/SupplementaryData.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trang/PhD/Manuscripts/cardioinformatics/supp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864D00E-1793-754F-A603-E16321F6E064}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757E0AB4-D16D-A745-A916-42E4D890A53C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="2220" windowWidth="27640" windowHeight="16540" xr2:uid="{DFC9B0EE-B440-7443-9BBA-835DD7529599}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{DFC9B0EE-B440-7443-9BBA-835DD7529599}"/>
   </bookViews>
   <sheets>
     <sheet name="dbGaP-CVD-studies" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="Matrix">[1]LargeDataset!$D$3:$P$35</definedName>
@@ -3516,7 +3515,7 @@
   <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10866,16 +10865,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2255F3-1D55-7340-83B9-9F1428953DB5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/supp/SupplementaryData.xlsx
+++ b/supp/SupplementaryData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trang/PhD/Manuscripts/cardioinformatics/supp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757E0AB4-D16D-A745-A916-42E4D890A53C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E87BFB2-734F-E94D-9EE9-8A899B312CCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{DFC9B0EE-B440-7443-9BBA-835DD7529599}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{DFC9B0EE-B440-7443-9BBA-835DD7529599}"/>
   </bookViews>
   <sheets>
     <sheet name="dbGaP-CVD-studies" sheetId="2" r:id="rId1"/>
+    <sheet name="OmicsDataSets" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Matrix">[1]LargeDataset!$D$3:$P$35</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1046">
   <si>
     <t>Query</t>
   </si>
@@ -2908,13 +2909,280 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/projects/gapsolr/facets.html?COND=%7B%22study_main_disease%22:%5B%22Aging%22,%22Abdominal%20Aortic%20Aneurysms%22,%22Aortic%20Aneurysm,%20Abdominal%22,%22Aortic%20Diseases%22,%22Aortic%20Valve%20Stenosis%22,%22Arterial%20Pressure,%20Mean%22,%22Aspirin%22,%22Atherosclerosis%22,%22Atrial%20Fibrillation%22,%22Atrial%20fibrillation%22,%22Cardiomyopathies%22,%22Cardiomyopathy,%20Dilated%22,%22Cardiovascular%20Disease%22,%22Cardiovascular%20Diseases%22,%22Cerebrovascular%20Disorders%22,%22Cerebral%20infarction%22,%22Cerebral%20Hemorrhage%22,%22Coronary%20Artery%20Disease%22,%22Coronary%20Disease%22,%22Coronary%20Heart%20Disease%22,%22Heart%20Diseases%22,%22Heart%20Defects,%20Congenital%22,%22Heart%20Conduction%20System%22,%22Heart%20Septal%20Defects%22,%22Hypertension%22,%22Hypertension,%20Pulmonary%22,%22Hypertriglyceridemia%22,%22Hypotension,%20Orthostatic%22,%22Intracranial%20Aneurysm%22,%22Intracerebral%20Hemorrhage%22,%22Intracranial%20Hemorrhage%22,%22Lipids%22,%22Lipoproteins,%20HDL%22,%22Myocardial%20Revascularization%22,%22Myocardial%20Infarction%22,%22Peripheral%20Arterial%20Disease%22,%22Peripheral%20Vascular%20Diseases%22,%22Platelet%20Aggregation%22,%22Stroke%22,%22Vasculitis%22,%22Venous%20Thromboembolism%22%5D%7D#</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>WES</t>
+  </si>
+  <si>
+    <t>Chromatin structure</t>
+  </si>
+  <si>
+    <t>DNA-methylation</t>
+  </si>
+  <si>
+    <t>DNA accessibility (DNAse-seq)</t>
+  </si>
+  <si>
+    <t>Histone modification</t>
+  </si>
+  <si>
+    <t>TF occupancy profiling</t>
+  </si>
+  <si>
+    <t>Transcriptomics profiling</t>
+  </si>
+  <si>
+    <t>RNA-binding (CLIP-seq, RIP-seq)</t>
+  </si>
+  <si>
+    <t>Proteomics</t>
+  </si>
+  <si>
+    <t>Metabolomics</t>
+  </si>
+  <si>
+    <t>Phenome (Health records, phenotypic measurements, etc.)</t>
+  </si>
+  <si>
+    <t>Exposome</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Trans-omics samples</t>
+  </si>
+  <si>
+    <t>1000 Genomes Project &amp; Geuvadis</t>
+  </si>
+  <si>
+    <t>Geuvadis is the project that perform RNA-seq assay on 1000G samples</t>
+  </si>
+  <si>
+    <t>http://www.internationalgenome.org/</t>
+  </si>
+  <si>
+    <t>UK 10K</t>
+  </si>
+  <si>
+    <t>Includes 2 cohorts specifically apt for studying gene-environment interplay: 2000 in Avon Longitudinal Study of Parents and Children (ALSPAC) and 2000 in Department of Twin Research and Genetic Epidemiology (DTR). WES: 3000 for neurodevelopment, 2000 for obesity, 1000 for rare disease</t>
+  </si>
+  <si>
+    <t>https://www.uk10k.org/</t>
+  </si>
+  <si>
+    <t>100000 Genomes Project</t>
+  </si>
+  <si>
+    <t>"creating a database of 100,000 whole genome sequences linked to continually updated long term patient health and personal information"</t>
+  </si>
+  <si>
+    <t>https://www.genomicsengland.co.uk/</t>
+  </si>
+  <si>
+    <t>All of Us Research Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biospecimen: blood, urine &amp; (optionally) saliva. Phenotypes: linked HER, physical measurements, digital sensors. </t>
+  </si>
+  <si>
+    <t>https://allofus.nih.gov/</t>
+  </si>
+  <si>
+    <t>TOPMed (Trans-Omics for Precision Medicine)</t>
+  </si>
+  <si>
+    <t>Number of genomes cannot be obtained reliably, as data is organized into separate studies. 144k participants in total.</t>
+  </si>
+  <si>
+    <t>https://www.nhlbiwgs.org/group/project-studies</t>
+  </si>
+  <si>
+    <t>AA_CAC</t>
+  </si>
+  <si>
+    <t>African American Coronary Artery Calcification project</t>
+  </si>
+  <si>
+    <t>AFGen</t>
+  </si>
+  <si>
+    <t>Identification of Common Genetic Variants for Atrial Fibrillation and PR Interval - Atrial Fibrillation Genetics Consortium</t>
+  </si>
+  <si>
+    <t>Africa7K</t>
+  </si>
+  <si>
+    <t>Integrative Genomic Studies of Heart and Blood Related Traits in Africans</t>
+  </si>
+  <si>
+    <t>Amish</t>
+  </si>
+  <si>
+    <t>Genetics of Cardiometabolic Health in the Amish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>BioMe</t>
+  </si>
+  <si>
+    <t>Mount Sinai BioMe Biobank</t>
+  </si>
+  <si>
+    <t>CARDIA</t>
+  </si>
+  <si>
+    <t>Whole Genome Sequence Analysis in Early Cerebral Small Vessel Disease</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
+    <t>Cardiovascular Health Study</t>
+  </si>
+  <si>
+    <t>FHS</t>
+  </si>
+  <si>
+    <t>Framingham Heart Study</t>
+  </si>
+  <si>
+    <t>GeneSTAR</t>
+  </si>
+  <si>
+    <t>Genetic Studies of Atherosclerosis Risk</t>
+  </si>
+  <si>
+    <t>GenSalt</t>
+  </si>
+  <si>
+    <t>Genetic Epidemiology Network of Salt Sensitivity</t>
+  </si>
+  <si>
+    <t>GOLDN</t>
+  </si>
+  <si>
+    <t>Genetics of Lipid Lowering Drugs and Diet Network</t>
+  </si>
+  <si>
+    <t>HCHS_SOL</t>
+  </si>
+  <si>
+    <t>Hispanic Community Health Study - Study of Latinos</t>
+  </si>
+  <si>
+    <t>HyperGEN_GENOA</t>
+  </si>
+  <si>
+    <t>Hypertension Genetic Epidemiology Network and Genetic Epidemiology Network of Arteriopathy</t>
+  </si>
+  <si>
+    <t>JHS</t>
+  </si>
+  <si>
+    <t>Jackson Heart Study</t>
+  </si>
+  <si>
+    <t>MESA</t>
+  </si>
+  <si>
+    <t>Multi-Ethnic Study of Atherosclerosis</t>
+  </si>
+  <si>
+    <t>PCGC_CHD</t>
+  </si>
+  <si>
+    <t>Pediatric Cardiac Genomics Consortium's Congenital Heart Disease Biobank</t>
+  </si>
+  <si>
+    <t>PROMIS</t>
+  </si>
+  <si>
+    <t>Pakistan Risk of Myocardial Infarction Study</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>Samoan Adiposity Study</t>
+  </si>
+  <si>
+    <t>SCVI</t>
+  </si>
+  <si>
+    <t>Stanford Cardiovascular Institute iPSC Biobank Study</t>
+  </si>
+  <si>
+    <t>THRV</t>
+  </si>
+  <si>
+    <t>Taiwan Study of Hypertension using Rare Variants</t>
+  </si>
+  <si>
+    <t>TOPCHeF</t>
+  </si>
+  <si>
+    <t>Trans-Omics for Precision Medicine for Congestive Heart Failure</t>
+  </si>
+  <si>
+    <t>VTE</t>
+  </si>
+  <si>
+    <t>Venous Thromboembolism project</t>
+  </si>
+  <si>
+    <t>WHI</t>
+  </si>
+  <si>
+    <t>CCDG (Centers for Common Disease Genomics)</t>
+  </si>
+  <si>
+    <t>New. Data not yet available. Numbers are extracted from the CVD Working Group Plan https://ccdg.rutgers.edu/sites/default/files/CCDG_CVD_EOCAD_STROKE_FINAL.pdf
+(CCDG) considered five diseases: early-onset coronary artery disease (EOCAD), stroke, atrial
+fibrillation, congestive heart failure and type 2 diabetes.</t>
+  </si>
+  <si>
+    <t>https://ccdg.rutgers.edu/cardiovascular-disease</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>WES is not on the same population as WGS.</t>
+  </si>
+  <si>
+    <t>EOCAD</t>
+  </si>
+  <si>
+    <t>Early-onset Coronary Artery Disease</t>
+  </si>
+  <si>
+    <t>Hemorrhagic stroke</t>
+  </si>
+  <si>
+    <t>AF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2938,6 +3206,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2956,16 +3259,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3514,7 +3845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F5DFE1-2F93-0E4A-9581-B1B9CCCC6206}">
   <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -10865,4 +11196,1546 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737DC6DF-E90F-E84B-AAD7-B8B76D33FCA3}">
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="15" width="3.33203125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="17" max="20" width="10.83203125" style="5"/>
+    <col min="22" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="205" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9">
+        <v>2504</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>465</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9">
+        <f>LOG10(MIN(D3,F3:P3))</f>
+        <v>2.667452952889954</v>
+      </c>
+      <c r="R3" s="10">
+        <f>(MIN(D3,F3:O3))</f>
+        <v>465</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9">
+        <v>4000</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9">
+        <f t="shared" ref="Q4:Q6" si="0">LOG10(MIN(D4,F4:P4))</f>
+        <v>3.6020599913279625</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" ref="R4:R6" si="1">(MIN(D4,F4:O4))</f>
+        <v>4000</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9">
+        <v>100000</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>987</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1409</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9">
+        <f>LOG10(MIN(D8,F8:P8))</f>
+        <v>3.1489109931093564</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" ref="R8:R29" si="2">(MIN(D8,F8:O8))</f>
+        <v>1409</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2799</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9">
+        <f t="shared" ref="Q9:Q35" si="3">LOG10(MIN(D9,F9:P9))</f>
+        <v>3.4470028984661623</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="2"/>
+        <v>2799</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="D10" s="14">
+        <v>7500</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9">
+        <f t="shared" si="3"/>
+        <v>3.8750612633917001</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="S10" s="11"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1100</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>999</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9">
+        <f t="shared" si="3"/>
+        <v>3.0413926851582249</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D12" s="14">
+        <v>11413</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9">
+        <f t="shared" si="3"/>
+        <v>4.0573998172660621</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="2"/>
+        <v>11413</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D13" s="14">
+        <v>3622</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9">
+        <f t="shared" si="3"/>
+        <v>3.5589484459780394</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="2"/>
+        <v>3622</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D14" s="14">
+        <v>3600</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9">
+        <f t="shared" si="3"/>
+        <v>3.5563025007672873</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D15" s="14">
+        <v>4089</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9">
+        <f t="shared" si="3"/>
+        <v>3.6116171105543362</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="2"/>
+        <v>4089</v>
+      </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1400</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9">
+        <f t="shared" si="3"/>
+        <v>3.1461280356782382</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="S16" s="11"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1860</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9">
+        <f t="shared" si="3"/>
+        <v>3.2695129442179165</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="2"/>
+        <v>1860</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D18" s="14">
+        <v>967</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9">
+        <f t="shared" si="3"/>
+        <v>2.9854264740830017</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="2"/>
+        <v>967</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2270</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9">
+        <f t="shared" si="3"/>
+        <v>3.3560258571931225</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="2"/>
+        <v>2270</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D20" s="14">
+        <v>3161</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9">
+        <f t="shared" si="3"/>
+        <v>3.4998244958395799</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="2"/>
+        <v>3161</v>
+      </c>
+      <c r="S20" s="11"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D21" s="14">
+        <v>3500</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9">
+        <f t="shared" si="3"/>
+        <v>3.5440680443502757</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="S21" s="11"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D22" s="14">
+        <v>4595</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="14">
+        <v>950</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="14">
+        <v>950</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9">
+        <f t="shared" si="3"/>
+        <v>2.9777236052888476</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="S22" s="11"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D23" s="14">
+        <v>3230</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="14">
+        <v>308</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9">
+        <f t="shared" si="3"/>
+        <v>2.4885507165004443</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="S23" s="11"/>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D24" s="14">
+        <v>7961</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9">
+        <f t="shared" si="3"/>
+        <v>3.9009676239191244</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="2"/>
+        <v>7961</v>
+      </c>
+      <c r="S24" s="11"/>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1296</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9">
+        <f t="shared" si="3"/>
+        <v>3.1126050015345745</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="2"/>
+        <v>1296</v>
+      </c>
+      <c r="S25" s="11"/>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="14">
+        <v>450</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9">
+        <f t="shared" si="3"/>
+        <v>2.6532125137753435</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="S26" s="11"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D27" s="14">
+        <v>2585</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9">
+        <f t="shared" si="3"/>
+        <v>3.4124605474299612</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="2"/>
+        <v>2585</v>
+      </c>
+      <c r="S27" s="11"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1078</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="14">
+        <v>1078</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9">
+        <f t="shared" si="3"/>
+        <v>3.03261876085072</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="2"/>
+        <v>1078</v>
+      </c>
+      <c r="S28" s="11"/>
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D29" s="14">
+        <v>6000</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9">
+        <f t="shared" si="3"/>
+        <v>3.7781512503836434</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="S29" s="11"/>
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9">
+        <v>11100</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
+        <v>1400</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9">
+        <v>1400</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9">
+        <v>1400</v>
+      </c>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="8">
+        <f>LOG10(MIN(D30,F30:P30))</f>
+        <v>3.1461280356782382</v>
+      </c>
+      <c r="R30" s="15">
+        <f>(MIN(D30,F30:O30))</f>
+        <v>1400</v>
+      </c>
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9">
+        <v>10500</v>
+      </c>
+      <c r="E32" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9">
+        <f t="shared" si="3"/>
+        <v>4.0211892990699383</v>
+      </c>
+      <c r="R32" s="10">
+        <f>(MIN(D32,F32:O32))</f>
+        <v>10500</v>
+      </c>
+      <c r="S32" s="11"/>
+      <c r="T32" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D33" s="9">
+        <v>25500</v>
+      </c>
+      <c r="E33" s="9">
+        <v>12500</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9">
+        <f t="shared" si="3"/>
+        <v>4.4065401804339555</v>
+      </c>
+      <c r="R33" s="10">
+        <f>(MIN(D33,F33:O33))</f>
+        <v>25500</v>
+      </c>
+      <c r="S33" s="11"/>
+      <c r="T33" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D34" s="9">
+        <v>7500</v>
+      </c>
+      <c r="E34" s="9">
+        <v>4500</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9">
+        <f t="shared" si="3"/>
+        <v>3.8750612633917001</v>
+      </c>
+      <c r="R34" s="10">
+        <f>(MIN(D34,F34:O34))</f>
+        <v>7500</v>
+      </c>
+      <c r="S34" s="11"/>
+      <c r="T34" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D35" s="9">
+        <v>6140</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9">
+        <f t="shared" si="3"/>
+        <v>3.7881683711411678</v>
+      </c>
+      <c r="R35" s="10">
+        <f>(MIN(D35,F35:O35))</f>
+        <v>6140</v>
+      </c>
+      <c r="S35" s="11"/>
+      <c r="T35" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="Q3:Q35">
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F33F6EDE-E1FB-814F-9192-09B5D30A82D0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="S6" r:id="rId1" xr:uid="{435FDED1-A42C-3F4F-834C-573922568C69}"/>
+    <hyperlink ref="S7" r:id="rId2" xr:uid="{DC1D69F4-845F-3F46-9BA5-828C0EAD652F}"/>
+    <hyperlink ref="S31" r:id="rId3" xr:uid="{7F55E223-D404-D544-B956-B4EF692CDB63}"/>
+    <hyperlink ref="S4" r:id="rId4" xr:uid="{E925B0F0-D988-904F-8E6B-D0CD49F17800}"/>
+    <hyperlink ref="S3" r:id="rId5" xr:uid="{592386CE-6532-164F-A7C2-ABD11857364B}"/>
+    <hyperlink ref="S5" r:id="rId6" xr:uid="{66E685B8-2AD1-5F49-BFAF-0DF7B57660C9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F33F6EDE-E1FB-814F-9192-09B5D30A82D0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor theme="4"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q3:Q35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{A69D4B0D-D000-CE4B-95B3-E0DB903C254F}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D3:P29 D31:P35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{C663CC14-6371-734F-80AC-C2C836B3F5DB}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{7649A4A3-83FC-A646-80F8-86258C977BB8}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{77EE55D6-2F79-824D-BC17-B5FC4BF7C4E1}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{38BBABE6-F2F9-7541-A54F-C3C65DEA9E2D}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{CBE96ED3-2762-DD4D-A330-7393C41ECB56}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{DDDAC0AD-0DC4-C447-BBA3-808A5DC71713}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{D4C18B73-E542-5340-B2B1-0EAC865EFAB8}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{A36233AB-508C-6045-AB4D-DA679FF0F5C4}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{2674A105-3E41-FA44-9E88-609AFE20EA6F}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>L30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{D032B012-06CD-634D-89BA-A0FD2CC2E5C1}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{84B8C32A-D2B2-534A-A101-74DDD29A3C43}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{F7C38765-46F6-AD48-9E49-45537D1F6E49}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{0239D4B7-44F5-7D47-B0A9-046326A85735}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P30</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/supp/SupplementaryData.xlsx
+++ b/supp/SupplementaryData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trang/PhD/Manuscripts/cardioinformatics/supp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E87BFB2-734F-E94D-9EE9-8A899B312CCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E317B2-6210-7D4D-B399-DA5BDC8AC9DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{DFC9B0EE-B440-7443-9BBA-835DD7529599}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1047">
   <si>
     <t>Query</t>
   </si>
@@ -3172,6 +3172,9 @@
   </si>
   <si>
     <t>AF</t>
+  </si>
+  <si>
+    <t>Women's Health Intiative</t>
   </si>
 </sst>
 </file>
@@ -3264,14 +3267,11 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -3293,6 +3293,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11203,1229 +11207,1231 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="15" width="3.33203125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="17" max="20" width="10.83203125" style="5"/>
-    <col min="22" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="3" width="10.83203125" style="4"/>
+    <col min="4" max="15" width="3.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="20" width="10.83203125" style="4"/>
+    <col min="22" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="205" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="15" t="s">
         <v>960</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="15"/>
+      <c r="D2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8">
         <v>2504</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
         <v>465</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8">
         <f>LOG10(MIN(D3,F3:P3))</f>
         <v>2.667452952889954</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="9">
         <f>(MIN(D3,F3:O3))</f>
         <v>465</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>978</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8">
         <v>4000</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>2000</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8">
         <f t="shared" ref="Q4:Q6" si="0">LOG10(MIN(D4,F4:P4))</f>
         <v>3.6020599913279625</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="9">
         <f t="shared" ref="R4:R6" si="1">(MIN(D4,F4:O4))</f>
         <v>4000</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>981</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8">
         <v>100000</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8">
         <v>100000</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9">
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="9">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="10" t="s">
         <v>984</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="7" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8">
         <v>1000000</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
         <v>1000000</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="9">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="11" t="s">
         <v>987</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="7" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="12" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="7" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12" t="s">
         <v>991</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>992</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>1409</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8">
         <f>LOG10(MIN(D8,F8:P8))</f>
         <v>3.1489109931093564</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="9">
         <f t="shared" ref="R8:R29" si="2">(MIN(D8,F8:O8))</f>
         <v>1409</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="8"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12" t="s">
         <v>993</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>994</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>2799</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8">
         <f t="shared" ref="Q9:Q35" si="3">LOG10(MIN(D9,F9:P9))</f>
         <v>3.4470028984661623</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="9">
         <f t="shared" si="2"/>
         <v>2799</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="8"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12" t="s">
         <v>995</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>996</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>7500</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8">
         <f t="shared" si="3"/>
         <v>3.8750612633917001</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="9">
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="8"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12" t="s">
         <v>997</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>998</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>1100</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9">
+      <c r="I11" s="13"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8">
         <f t="shared" si="3"/>
         <v>3.0413926851582249</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="9">
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="8"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12" t="s">
         <v>1000</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>1001</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>11413</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8">
         <f t="shared" si="3"/>
         <v>4.0573998172660621</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="9">
         <f t="shared" si="2"/>
         <v>11413</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="8"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="12" t="s">
         <v>1002</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>1003</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>3622</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8">
         <f t="shared" si="3"/>
         <v>3.5589484459780394</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="9">
         <f t="shared" si="2"/>
         <v>3622</v>
       </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="8"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="12" t="s">
         <v>1004</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>1005</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>3600</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8">
         <f t="shared" si="3"/>
         <v>3.5563025007672873</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="9">
         <f t="shared" si="2"/>
         <v>3600</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="8"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="12" t="s">
         <v>1006</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>1007</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>4089</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8">
         <f t="shared" si="3"/>
         <v>3.6116171105543362</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="9">
         <f t="shared" si="2"/>
         <v>4089</v>
       </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="8"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="12" t="s">
         <v>1008</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>1009</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>1400</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8">
         <f t="shared" si="3"/>
         <v>3.1461280356782382</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="9">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="8"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="7"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="12" t="s">
         <v>1010</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>1011</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>1860</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8">
         <f t="shared" si="3"/>
         <v>3.2695129442179165</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="9">
         <f t="shared" si="2"/>
         <v>1860</v>
       </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="8"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12" t="s">
         <v>1012</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>1013</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>967</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8">
         <f t="shared" si="3"/>
         <v>2.9854264740830017</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="9">
         <f t="shared" si="2"/>
         <v>967</v>
       </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="8"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12" t="s">
         <v>1014</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>1015</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>2270</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8">
         <f t="shared" si="3"/>
         <v>3.3560258571931225</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="9">
         <f t="shared" si="2"/>
         <v>2270</v>
       </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="8"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="7"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12" t="s">
         <v>1016</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>1017</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>3161</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8">
         <f t="shared" si="3"/>
         <v>3.4998244958395799</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="9">
         <f t="shared" si="2"/>
         <v>3161</v>
       </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="8"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="7"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12" t="s">
         <v>1018</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>1019</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>3500</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8">
         <f t="shared" si="3"/>
         <v>3.5440680443502757</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="9">
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="8"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>1021</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>4595</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="14">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="13">
         <v>950</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="14">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="13">
         <v>950</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9">
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8">
         <v>1000</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9">
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8">
         <f t="shared" si="3"/>
         <v>2.9777236052888476</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="9">
         <f t="shared" si="2"/>
         <v>950</v>
       </c>
-      <c r="S22" s="11"/>
-      <c r="T22" s="8"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>1023</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>3230</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="14">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="13">
         <v>308</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8">
         <f t="shared" si="3"/>
         <v>2.4885507165004443</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="9">
         <f t="shared" si="2"/>
         <v>308</v>
       </c>
-      <c r="S23" s="11"/>
-      <c r="T23" s="8"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12" t="s">
         <v>1024</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>1025</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>7961</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8">
         <f t="shared" si="3"/>
         <v>3.9009676239191244</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="9">
         <f t="shared" si="2"/>
         <v>7961</v>
       </c>
-      <c r="S24" s="11"/>
-      <c r="T24" s="8"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12" t="s">
         <v>1026</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>1027</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>1296</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8">
         <f t="shared" si="3"/>
         <v>3.1126050015345745</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="9">
         <f t="shared" si="2"/>
         <v>1296</v>
       </c>
-      <c r="S25" s="11"/>
-      <c r="T25" s="8"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12" t="s">
         <v>1028</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>1029</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>1500</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="14">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="13">
         <v>450</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8">
         <f t="shared" si="3"/>
         <v>2.6532125137753435</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="9">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="8"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="7"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="12" t="s">
         <v>1030</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>1031</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>2585</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8">
         <f t="shared" si="3"/>
         <v>3.4124605474299612</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="9">
         <f t="shared" si="2"/>
         <v>2585</v>
       </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="8"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="7"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>1033</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>1078</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="14">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="13">
         <v>1078</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8">
         <f t="shared" si="3"/>
         <v>3.03261876085072</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="9">
         <f t="shared" si="2"/>
         <v>1078</v>
       </c>
-      <c r="S28" s="11"/>
-      <c r="T28" s="8"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="7"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="12" t="s">
         <v>1034</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>1035</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>6000</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8">
         <f t="shared" si="3"/>
         <v>3.7781512503836434</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="9">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="S29" s="11"/>
-      <c r="T29" s="8"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="7"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9">
+      <c r="C30" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D30" s="8">
         <v>11100</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
         <v>1400</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8">
         <v>1400</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9">
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8">
         <v>1400</v>
       </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="8">
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="7">
         <f>LOG10(MIN(D30,F30:P30))</f>
         <v>3.1461280356782382</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="14">
         <f>(MIN(D30,F30:O30))</f>
         <v>1400</v>
       </c>
-      <c r="T30" s="8"/>
+      <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="12" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="T31" s="8" t="s">
+      <c r="T31" s="7" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>1040</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9">
+      <c r="C32" s="7"/>
+      <c r="D32" s="8">
         <v>10500</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>4000</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8">
         <f t="shared" si="3"/>
         <v>4.0211892990699383</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="9">
         <f>(MIN(D32,F32:O32))</f>
         <v>10500</v>
       </c>
-      <c r="S32" s="11"/>
-      <c r="T32" s="8" t="s">
+      <c r="S32" s="10"/>
+      <c r="T32" s="7" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>25500</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>12500</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8">
         <f t="shared" si="3"/>
         <v>4.4065401804339555</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="9">
         <f>(MIN(D33,F33:O33))</f>
         <v>25500</v>
       </c>
-      <c r="S33" s="11"/>
-      <c r="T33" s="8" t="s">
+      <c r="S33" s="10"/>
+      <c r="T33" s="7" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>1044</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>7500</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>4500</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8">
         <f t="shared" si="3"/>
         <v>3.8750612633917001</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="9">
         <f>(MIN(D34,F34:O34))</f>
         <v>7500</v>
       </c>
-      <c r="S34" s="11"/>
-      <c r="T34" s="8" t="s">
+      <c r="S34" s="10"/>
+      <c r="T34" s="7" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>6140</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8">
         <f t="shared" si="3"/>
         <v>3.7881683711411678</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="9">
         <f>(MIN(D35,F35:O35))</f>
         <v>6140</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="8"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/supp/SupplementaryData.xlsx
+++ b/supp/SupplementaryData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trang/PhD/Manuscripts/cardioinformatics/supp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E317B2-6210-7D4D-B399-DA5BDC8AC9DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48E88BB-0B16-064D-8327-EF5A51FA468C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{DFC9B0EE-B440-7443-9BBA-835DD7529599}"/>
   </bookViews>
@@ -2956,9 +2956,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>Trans-omics samples</t>
   </si>
   <si>
@@ -3175,6 +3172,9 @@
   </si>
   <si>
     <t>Women's Health Intiative</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -11207,7 +11207,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11270,10 +11270,10 @@
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>974</v>
+        <v>1046</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>973</v>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -11311,15 +11311,15 @@
         <v>465</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -11349,15 +11349,15 @@
         <v>4000</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -11387,15 +11387,15 @@
         <v>100000</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -11425,15 +11425,15 @@
         <v>1000000</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -11453,19 +11453,19 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="9"/>
       <c r="S7" s="11" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>991</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>992</v>
       </c>
       <c r="D8" s="13">
         <v>1409</v>
@@ -11496,10 +11496,10 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>993</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>994</v>
       </c>
       <c r="D9" s="13">
         <v>2799</v>
@@ -11530,10 +11530,10 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>995</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>996</v>
       </c>
       <c r="D10" s="13">
         <v>7500</v>
@@ -11564,10 +11564,10 @@
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>997</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>998</v>
       </c>
       <c r="D11" s="13">
         <v>1100</v>
@@ -11576,7 +11576,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="8"/>
@@ -11600,10 +11600,10 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>1000</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>1001</v>
       </c>
       <c r="D12" s="13">
         <v>11413</v>
@@ -11634,10 +11634,10 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>1002</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>1003</v>
       </c>
       <c r="D13" s="13">
         <v>3622</v>
@@ -11668,10 +11668,10 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>1004</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>1005</v>
       </c>
       <c r="D14" s="13">
         <v>3600</v>
@@ -11702,10 +11702,10 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>1006</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>1007</v>
       </c>
       <c r="D15" s="13">
         <v>4089</v>
@@ -11736,10 +11736,10 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>1008</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>1009</v>
       </c>
       <c r="D16" s="13">
         <v>1400</v>
@@ -11770,10 +11770,10 @@
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>1010</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>1011</v>
       </c>
       <c r="D17" s="13">
         <v>1860</v>
@@ -11804,10 +11804,10 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>1012</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>1013</v>
       </c>
       <c r="D18" s="13">
         <v>967</v>
@@ -11838,10 +11838,10 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>1014</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>1015</v>
       </c>
       <c r="D19" s="13">
         <v>2270</v>
@@ -11872,10 +11872,10 @@
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>1016</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>1017</v>
       </c>
       <c r="D20" s="13">
         <v>3161</v>
@@ -11906,10 +11906,10 @@
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>1018</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>1019</v>
       </c>
       <c r="D21" s="13">
         <v>3500</v>
@@ -11940,10 +11940,10 @@
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>1020</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>1021</v>
       </c>
       <c r="D22" s="13">
         <v>4595</v>
@@ -11980,10 +11980,10 @@
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>1022</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>1023</v>
       </c>
       <c r="D23" s="13">
         <v>3230</v>
@@ -12016,10 +12016,10 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>1024</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>1025</v>
       </c>
       <c r="D24" s="13">
         <v>7961</v>
@@ -12050,10 +12050,10 @@
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>1026</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>1027</v>
       </c>
       <c r="D25" s="13">
         <v>1296</v>
@@ -12084,10 +12084,10 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>1028</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>1029</v>
       </c>
       <c r="D26" s="13">
         <v>1500</v>
@@ -12120,10 +12120,10 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>1030</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>1031</v>
       </c>
       <c r="D27" s="13">
         <v>2585</v>
@@ -12154,10 +12154,10 @@
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>1032</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>1033</v>
       </c>
       <c r="D28" s="13">
         <v>1078</v>
@@ -12190,10 +12190,10 @@
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="12" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>1034</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>1035</v>
       </c>
       <c r="D29" s="13">
         <v>6000</v>
@@ -12223,10 +12223,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D30" s="8">
         <v>11100</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -12281,16 +12281,16 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="9"/>
       <c r="S31" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8">
@@ -12320,16 +12320,16 @@
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>1042</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>1043</v>
       </c>
       <c r="D33" s="8">
         <v>25500</v>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="S33" s="10"/>
       <c r="T33" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -12367,7 +12367,7 @@
         <v>188</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D34" s="8">
         <v>7500</v>
@@ -12396,13 +12396,13 @@
       </c>
       <c r="S34" s="10"/>
       <c r="T34" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>629</v>
